--- a/data/刘强东1.xlsx
+++ b/data/刘强东1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FA809F5-D2B6-495F-9767-88223C4BB9F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27510" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -23,452 +17,684 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
   <si>
     <t>刘强东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得上市对于京东和我本人来讲，基本上变化很少。唯一就是每个季度要开一次财报发布会，回答一下投资者的问题，董事会开的比以前更加严格，数据和披露信息更加多一些。其他没有什么变化，包括我们战略，我们的业务模式，我们的组织架构，都没有改变。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这个我觉得美国财务的要求和中国是不一样的，虽然US GAAP方式我们是有几个亿的亏损，但是如果要看NON GAAP，实际上我们去年还是好多季度是有盈利的。所以从这点来讲，包括我们现金流一直很健康。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得烧钱有两个结果，有的钱烧掉呢是化作了一滩灰烬，什么都没有；还有一种钱烧掉了之后留下了非常高的竞争门槛。北京来讲我们过去八年烧的钱现在留下覆盖全国的物流网络，这个庞大的网络给我们用户体验带来了最好的用户体验。同时因为我们有自己的物流网络，我们有自己的业务，也保证我们产品的品质，降低了我们整个行业的成本，提升了整个供应链的效率。从这个角度来讲，我觉得我们过去八年花在物流上面，所谓烧的钱，我们觉得值得。到今天为止的话，不管是我们的用户、合作伙伴，还是投资人，都看到了，这些钱花得特别值，他们开心其实。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得不管什么模式，最后干什么了，最后不要忘了一点，我们所有的模式最后都是为消费者服务的。我觉得京东我们自建物流，给中国消费者带来用户体验是前所未有的，甚至在全球都是领先的，到今天为止亚马逊在美国也只是最近一两年开始复制我们当日达的服务，而京东五年前就实现了当日达，很多城市。所以这个角度来讲，我觉得我们还是对我们的自建物流的模式充满了信心。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毛利率其实跟我们有没有物流没有任何关系的，一点点关系都没有。很多人看到我们毛利率比同行业低很多，但是不要忘了我们成本也比我们同行低了50%以上。这个低成本给我们造成了巨大的竞争的优势，我们可以卖的价格比别人便宜，而我们获取的利润一点都不低。你可以看到过去三年我们已经公开的财务数字，我们每年毛利率都稳步的在进行提升的，这是第一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这个其实就是说不管自营还是平台，我们长期更希望用市场的方式去解决。我们内部并不强制性规定这个平台只能做自营，那个平台必须做平台开放，而是跟平台电商运营的技能属性相关的。所有买标准化产品跟京东的差距被我们拉大越来越多了，同时还有大量非标准化产品，用自营的模式暂时是做不到的，比如服装鞋帽。像这种情况我们无法用自营的方式管理好我们库存，给用户带来更好的用户体验，所以在这种情况下我们把平台开放给对自己的产品更加熟悉的品牌厂商，让他们进行经营。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这个竞争其实没关系的，因为不管我们是自营卖出去，还是平台卖出去，对于京东我们获取的利润几乎是一样的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所以这个我们还是希望把这个选择权交给用户，而不是京东代表用户做出一个强制性人为的决定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未来随着我们销售规模不断的扩大，我们不可避免会有很多，比如服装鞋帽品牌，它可能愿意希望用我们物流系统，希望把它这个品牌网上营销、销售全部交给京东。所以呢，我相信再过一两年之后，会有大量非标准化产品，平台所有者，逐步的会把它业务交给京东，我们自营增速还会得到进一步发展。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得价格战你不能建立在恶性的基础之上。什么是恶性的基础之上，就是你的成本很高，结果你卖的价格很低，这种商业模式是不可持续的，你永远是亏损去做生意。任何公司，别说承担11年了，可能3年都撑不过去就死掉了。因为投资人没有人愿意跟你输血，你做的是很愚蠢的生意。而京东的低价我们更多是站在良性基础上。我们首先优化我们的成本，通过降低了我们成本，所以呢我们才有资格和我们竞争对手相比，但是同时我们依然获利空间。你要现在看我们整个集团，按照财报是有一点点亏损，但其实你要剥离了新的业务，就是京东商城这块业务，实际上我们早就已经赚钱了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投资人，特别是跟着京东时间长的投资人，关键是他坚信我们商业模式，是能够带来巨大的价值。我不管你是什么样模式，我的用户体验一定要最好。第二就是过去11年我们持续不断进行投资，对我们物流进行投资，对我们研发技术进行投资，不断地降低我们整个供应链成本，提升它的效率，最后把这种反哺给我们供货商。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首先你看我们从2007年融资到今天为止看我们账上的现金，依然大于我们所有的融资总额的，或者你可以说我过去这么多年，我们扔的钱实际上一分钱都没有损失掉，所以这个条件不存在的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>企业的竞争是永无止境的，企业存在一天，你很核心的就是必须面对竞争，在这个世界上我看不到任何一个企业说，它能够连续三年不竞争，如果有的话，三年之后这家企业一定会倒闭，必死无疑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们从来没有把谁当作我们竞争对手来看待，我们共同是学习。我觉得行业内每家公司都有自己的可取之处，总之在某些方面可能做得比我们好，我们强调真正的竞争对手，真正的敌人，永远是来自于自己，自己的懒惰，或者战略者的失误，都可能会把自己的获得的竞争优势丧失掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比如五年十年之后来看的话，我相信几乎所有这种标准化垂直品类都很难以独立地生存和发展，为什么？因为你获取用户成本太高了，同时你的消费频次又太低了。但是对于一些非标准化产品，比如服装鞋帽，各种首饰等等之类的，我认为还是有很多机会的，很难存在说一个平台，单一平台说赢者通吃这个局面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">我相信几乎每个电商都在尝试，但迄今为止可以说还没有一家电商在生鲜品类上有所建树，获得很大的成功，都还是很小，交易额很小。为什么呢？因为生鲜的储存、运输、客单量低、物流成本很高，中间环节过多，这整个品类是有关系的。所以我们现在在思考，我们经过好几年摸索、探索，最后我们确立了生鲜电商一种业务模式，所以我们今年3月16号，新的一个运营上线，叫拍到家。说白就是我们希望跟所有的商场、超市、蔬菜销售商进行合作，利用好他们的库存。我们要做的只是把消费者生鲜的商品，还有我们的送货人员，把三者连接起来，以最短的距离，最低的物流成本，快速，最快速度，送到消费者家里去，现在目前已经上线，而且增速非常快。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虽然我们去年的平台交易额GMA已经过了两千亿，但是在整个中国庞大的消费市场里面，我们还是可以说连1%都没有占上，所以我相信未来，至少未来五年，我们的增速一定是行业增速的两倍以上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们首先分几大类，第一类是消费金融，比如我们京东白条。同时我们今年把白条又开始向两个细分市场扩充，一类是校园，同时我们有农村的白条。我相信农民其实更加需要这个金融产品，因为农村的高利贷比较盛行，他们金融的融资成本很高，而且融资渠道比较单一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二类就是我们供应链金融，是面向我们的供货商，面向我们卖家的。能够在他们每天24小时不间断的享受这种贷款的服务，快速的，不需要签合同，三分钟到账。这一切都是过去的金融产品没有做到的，或者它们不需要做到，但是我们把它做到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三大类就是我们会跟众筹相关的，比如产品众筹，股权众筹。股权投资，过去一直是富人的游戏，都是超级富翁才有钱去投资，而我们希望呢，有我们白领，中低收入者也可以像超级富翁一样投资一些新兴的企业，享受这些企业成功带来的巨大红利。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第四大类，我们还会跟证券、保险相关的金融产品，现在都在进行规划，逐步都会推出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>那是一个长期的规划，我并没有说三年之内达到或者五年之内达到，从非常长远来看的话，就是终究一天，它在集团整个净利润会有很大的贡献，这一点可以说不仅仅是在中国，在全世界都同样如此，你可以看到高收入的行业永远是金融行业。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们并不把它称之为所谓的生态体系，因为这些产品都是相关联的，你很难进行割裂，本身就是一体化的。所以呢，当然了，我们在一些特定的行业，比如智能硬件，所以我们成立了一个智能硬件公司，它打造JD+，就是希望能够把硬件者、开发者，包括创业、创新、金融产品全部放在一个平台上去，能够推动整个产业的发展，能够快速的改变中国现有的传统行业。所以呢，这其实就在智能硬件，我们尝试打造一个生态圈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们不会的，至少很长时间之内我们不会做自己的手机。我们更希望所有卖手机，所有手机品牌制造者，所有手机品牌所有者，成为我们最好的合作伙伴，而不是自己去做一部手机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的心得很简单，我从不把互联网看作一种，它是一种全新的世界，但是它绝对没有脱离过去几百年来建立的最基本的经济规律，而传统的经济规律是什么？永远就是用户、成本、效率，这一点从来没有变化过。不管你是做银行的，你是做工厂的，你还是提供服务的，最后都是前端用户体验，后端成本和效率，比拼这三个东西是少不了的。所以不管你做互联网还是做传统经济，你只要三点做的好了之后你依然可以获得很好的成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我可以举个例子，比如说美国的Costco，是个非常非常成功的企业，这家企业从来你也不知道它什么互联网思维等等。它虽然也在网上卖一些东西，但是它从来没有说我一定要把我的业务转型到网上去等等。为什么呢？你可以分析一下Costco这家公司财报，你发现他们成本非常非常低，全世界所有的不管是线上还是线下，在零售行业里面它成本做到了极致。它的用户体验非常好，经常在美国生活的人，特别是中高级的白领，一提，我是它的会员等等。每周开车，一买买一后备厢货物回家，非常便宜，质量也很好，它照样取得巨大成功。增长到目前为止在美国依然维持很高的增长，远远超出了美国整个零售行业的增速，超过了沃尔玛，超过了家乐福。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我是一个很低调的，当然很多时候经常会被人视为价格屠夫，什么颠覆者，破坏者，等等形象会比较张扬的标题来形容我。其实我本人来讲的话，其实我觉得我是在行业里非常非常低调的。我其实只要不是被公关部逼到没有办法的时候，我是拒绝了所有的论坛，所有的采访，所有的会议，你要经常参加各种各样企业家小型聚会的话，你发现各种场合我去的比较少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最主要还是因为公司做了成功，在这种情况下，我觉得公众对这家公司的创始人，这家公司的最大的管理人员的这种关注，我觉得是完全可以理解的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我只能说我也比较苦恼。我本人从来并不希望，但是毕竟我也是个正常的人，我也希望我有正常的生活，我希望我要有自己的家庭，能有自己的爱情等等，有自己的家人。所以说呢，我也没有办法做到说我是一个成功的企业家，我就一辈子必须要单身一个人。但有的时候大家关注，要来八卦，要过问，这都是我本人没法去改变的一个东西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目前业绩主要增长点还是来自于我们的零售业务，也就是电商业务，金融业务和物流业务目前还是有一定的亏损。过去十年是第一条曲线，现在进入第二条曲线，主要是新品类的成长，比如来自于健康、医疗、汽车、房产、服务和对外赋能以及物流、技术这些新的业务增长；大概两三年之后，我们会进入第三条增长曲线，主要是以技术拉动和对外赋能作为核心的增长推动点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们从2013年就开始强力布局技术，研发投入几乎每年都以50-80%的速度增长。京东的技术除了传统的互联网企业技术，比如人工智能、云计算、大数据之外，还有大量的硬件技术。在硬件方面，平均每个项目大概都要5到8年的投入，这期间没有任何收入，也没有任何利润，带来的都是成本，要5到8年之后才能够为集团做贡献。但毕竟我们已经做了很多年了，所以现在有些基础业务开始逐步成型、见到效果了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电商服务类业务的市场空间很大，但是由于京东目前整个的体量规模已经非常大了，服务从收入占比的角度来讲，还很难说会占到很大的比例，但是绝对值是不小的，因为每个市场都是几百亿甚至上千亿市场的空间，而且过去没人开发，还算一个全新的市场，所以我们都在积极布局。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未来京东服务很重要的来自于汽车、房产、医疗，这三项服务，我认为在3到5年之内，它的收入占比还是比较高的。从行业的角度讲，大家在互联网上消费是有一个逐步升级的过程，最早大家在网上买书，后来买衣服，现在可以买家电，很快大家发现在网上还可以购买汽车、房子，包括房屋的维修等等。消费理念不断升级，这个时候临界点就到了，比如说汽车，现在平均每天大概有2到3万位车主会在京东上购买轮胎，这在5年前、10年前是不可以想象的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从汽车来讲，大家想想一旦电动汽车普及了之后，我认为未来5年左右的时间，可能一半以上的汽车销售来自于网上，而不再是去传统的4S店。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>油动的时代大家基本上还要去4S店，看型号、选颜色、听发动机，消费者要去线下看，去感受。但是一旦进入电动汽车时代，比如像特斯拉，产品标准化程度非常高，每个品牌可能就三四款车型，你不需要选择，也没的选择，完全标准化。这个时候，电动汽车在网上销售未来一定成为主流，50%以上来自于互联网。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从成立这家公司那天开始，把服务做好就是我们不变的追求。服务类的产品，首先一定要标准化；第二要选择非常优秀的线下合作伙伴。有很多服务需要进行线下的落地，这需要优质的线下合作伙伴。如果说线下没有（找到这样的合作伙伴），达不到京东的服务品质，我们就自建。比如最近京东刚刚在三到五线城市成立了京东汽车超市，我们发现一二线城市的4S店，汽车销售的网络也好，便利性也非常好，但是三到五线城市，汽车消费还是比较难的问题，所以我们布局了京东汽车交易市场，所有的品牌都在一个交易市场，维修保养都在这里，这样能让消费者在一个地方能够买到全世界所有的汽车，和享受所有的服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我常说我这一辈子只想做两件事情，一件是以物流为载体的供应链业务，这里面包含金融、保险、汽车、房产、健康，都属于这一类业务。第二类就是技术。这两个业务基本上都有一个特点，就是任何业务都得需要10年、20年的时间，都需要1000亿甚至几千亿的投资才能把它做成，但是一旦做成，不仅是一个企业的核心竞争力问题，而且能够为行业和社会创造巨大的社会价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比如京东物流能够把整个中国的社会化物流成本，行业的物流成本降低70%到80%。这样企业自己获得利润，同时为我们的合作伙伴、整个行业节约了大量的成本，当大量的实体制造企业利润都提升了，他们一定会争抢人才，工人有钱了，白领有钱了，大家就会消费，这样对我们的零售商和品牌商都会形成一个正向的循环，这是我们感兴趣的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我喜欢要花10年、20年去做成一件事情，如果一件事情一年、半年就做成了，那从来都不是我喜欢做的事情，我觉得价值一般，因为你半年做成，别人也一定能半年做成，只有做一件事情需要20年的时间，因为大部分的人是没有20年的耐心，而恰恰这是企业的核心竞争力的体现，也是你企业家精神的体现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无人机真正的价值来自于两点。一，实现城市之间的干线和支线运输，进一步降低物流成本。随着京东的无人仓、无人驾驶卡车、无人配送站、无人机、配送机器人技术陆续成熟和投入使用，未来我们认为京东有机会能够把物流成本降到3%以下，现在京东（自己的物流成本）只有5%左右，我们准备未来再降40%，降到只有3%。京东的重型无人机将来准备要飞行1000公里以上，可以载重1至5吨；我们还在布局超重型无人机，可以在40至60吨的载重量飞行6000公里的距离。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随着这些无人机的使用，都可以提升整个供应链的效率。供应链的效率对零售行业、实体经济来讲，是至关重要的。过去我们国家大量的货物存在路上、存在仓库里面不动，产生不了社会价值，反而带来价值的损耗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二，京东的无人机干什么？是来帮助农村地区，因为咱们几千年以来形成的物流门槛导致了区域发展不平衡。随着京东无人机大规模投入使用，能够实现偏远落后地区享有跟北京、上海同样的产品和服务，同样的公平竞争。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比如京东的无人机可以把四川、贵州、云南、陕西这些偏远地区，农民种的质量很好的农产品迅速卖到北京、上海。过去因为物流成本太高，高到老百姓消费不起，有了无人机之后，不管多远的地方，都可以卖到北京、上海这样的大城市，让农民增收。如果卖不到大城市，只能在本地集市上消化，卖的价格很低，几乎赚不到什么钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电商行业正在发生两个变化。第一，消费者未来购物的需求是随时随地的。我们内部有一句话，（将来）你站在中国任何一条大街上，一抬头都能看到京东，可能是京东便利店、京东母婴店，或者是京东之家、京东家电专卖店、7Fresh，当然还有我们的合作伙伴，比如永辉、步步高。低头也能看到京东，手机有京东的APP或者微信，微信也可以来京东购物，这是我们希望能够满足消费者随时随地的消费需求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二，行业进入整合期。我们国家改革开放40年，连锁零售行业大概发展了30年。过去太分散，几乎每个城市都有一个地方连锁的超市，各种品牌的连锁超市达到几万家，甚至十几万家，其实这对社会不是好事情，因为太小了，他们的供应链能力、物流能力、服务能力、选品能力、经营能力其实都很弱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有一个数字，美国前十大零售商基本上占了美国全社会零售额的60%左右，集中度很高，这样大家不用担心垄断，因为10个玩家竞争已经很惨烈了，所以没有市场垄断的问题。同时还会大幅降低供应链成本，降低商品的消费价格，能够刺激消费需求，让这些品牌商利润大幅度提升。所以我们国家的零售最近一两年会进入快速整合期，大概在5年之内基本上整合完成，也一定会形成美国、欧洲、日本那样的局面，前十大零售商可能占了我们国家50%以上的市场份额，现在前十大概只占了10%的市场份额。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这样的快速整合是否会由电商来唱主角？不一定，因为也有很多连锁企业在整合，比如像家乐福跟永辉之间的战略联盟，也算是一种整合方式，他们背后其实没有电商在主导。但是最终来讲，不管是电商还是连锁店，二者一定是有战略合作和协作的，并且是深度的协作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们从第一天开始就看的很清楚，“无界零售”的核心，从后端来讲，就是供应链一体化。不管是开连锁店、开便利店还是理发店、餐厅、酒吧，背后可能都是同样的供应链体系，对一个品牌来讲也同样如此，比如说品牌商过去有自己的直营店、加盟店、经销商渠道，线上还有微信、京东或者其它电商平台的渠道，每个渠道都有不同的团队，甚至库存也不一样，货也不一样，这都给品牌商带来管理的难度和供应链的难度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过京东的“无界零售”，我们可以把背后供应链和产品、库存、货物全部升级成一个系统，减少品牌商的操作难度。从前端来讲，“无界零售”的核心就是满足消费者随时随地消费的需求，所以这两个是从来没有变过的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这需要大量新的技术来解决零售问题，（所以“无界零售”的实现）可能还需要5到10年的时间。而对于京东来讲最重要的是要把以物流为载体的供应链全球化。前十年，京东已经布局覆盖了整个中国的物流体系或者供应链体系，下一个十年就是把这一套优秀的中国物流体系渗透到全球去，成为一个全球化的物流和供应链企业。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未来“无界零售”做到极致的时候，比如说去理发店，给你洗发用的洗发水跟你去线上、去便利店或者超市里买的是一样的，没有区别；这瓶洗发水可能来自中国，也可能来自美国、欧洲，来自不同的国家。也就是在任何一个场景下消费者都可以买到来自全球的东西，并且成本是一样。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得可以这么说（社交电商是下一个风口）。最近几年通过社交衍生出来很多新的商业模式，京东在社交上面的销售规模也一直占10%以上的比例，10%已经是千亿级别了。我们在社交电商还在不断的布局，除了拼购之外，还有很多创新，内部有十几支团队都在围绕着微信生态圈打造社交电商，比如我们推出了“一起有局”，可以用微信小程序一块约朋友去看电影、吃饭、旅游、春游，把社交和消费都结合起来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现在社交电商最大的问题还是传统电商十几年没解决的问题——大量的假货、劣质货充斥。不管是社交电商还是其他电商形态，本质就是品牌、品质，这一个规律是没有人能颠覆的。当一个商品的价格便宜到一定程度的时候，其实对消费者没好处，便宜没好货，天上永远掉不下馅饼。等到有一天很多消费者明白这一点的时候，他还会找京东这样有品牌、有品质保证社交电商平台给他提供产品和服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当然，行业发展初期都是无序、混乱的，但是市场的好处就是不断的差异化产品竞争，最后消费者还是会用脑投票。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定义年轻呢我觉得最主要的还是自己的心态，以及个人的价值主张。就是比如我陪家人去逛街，看到各种年轻时尚的衣服的时候，还很有买的冲动，这时觉得自己很年轻，但真的去试了就觉得哎呀还是不太适合自己的年龄和工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成长就要持续不断地学习。我一般每隔三五年就会有一次长时间的学习，比如前年去哥伦比亚大学学习了大半年，现在正在考虑要不要再学习一段时间。平时我还喜欢读各种短文，上网看一些网友对各种时事的评论、对产品的评价等等，是了解网民需求和心态的很好的途径。这其实也是一种学习。京东是以强调用户体验为中心的，的客户群体的需求不断变化时我们必须跟得上。比如从2012年起京东的女性注册用户超过了男性，另外从去年开始90后群体在明显快速地增加。当这些用户需求变化之后，我们的产品也能得到用户喜爱，这对我来讲也是一种成长。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从公司角度来讲，有一个错你不能试，就是战略方面的错。公司越大，要付出的战略方面错误的代价就越大。但是你的产品可以试错，你的新服务可以试错，当然战略也好，产品也好，服务也好，包括你的投资、布局等等都是围绕着用户体验的，用户体验的下降就是战略出了问题最直接的一个结果。在新产品研发的时候，当我们还没法进行用户体验采样对比的时候，我们有用户体验实验室，有各种各样的现代化设备，在产品发布之前可以在设备上研究一些数据来预测接下来的用户体验，还会通过用户访谈来了解用户反馈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得很核心的一点就是当时内心的一种躁动和对创业的渴望、渴求、梦想，它时刻在牵绕着你，这个东西是没法抗拒的。我大四的时候创业失败过，一度想要放弃，心想算了吧，后来也去了日本企业，工资待遇也非常好，但吃不好睡不好，最后还是没忍住继续创业了，总觉得对于想要做自己喜欢的事情、对成功有一种使命感。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“管吃管喝管浪漫”这句总结得太好了！可以这么说，或者说是对现有商业模式的一个重大修补吧。其实我们现有的商业模式没办法解决老百姓“吃”的问题，特别是生鲜蔬菜这部分。现有的行业里还没有一家公司能把生鲜这部分做得非常好的，因为生鲜强调的是“鲜”和“快”，没人会下了订单之后等你一两天再送上门。所以我们经过两年不断的创新、试错、迭代开发，就是要找到一个全新的商业模式来解决大家吃生鲜蔬菜的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因为过去的创业主要是我自己来主导的，所有的细节都自己敲定，用了11年时间打造了京东商城，那么在这个基础上新的商业模式我觉得还是要由创始人自己推动，把商业模式调好了之后可以交给团队去发展壮大它。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首先其实我本人一点都不喜欢社交，要不是为了公司我肯定不会去参加一些活动发表演讲，我只希望跟我的合作伙伴、员工和几十年的老朋友们接触。对于我来讲，其实最后你会发现大部分人脉是没有任何意义的，找一帮和自己价值观相近，喜好相近，能够成为真正知己的朋友才更有意义。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其次很多创业者失败不是因为没有人脉，而是因为人脉太多，比如他去参加各种聚会，所有场合都能看到他，反而浪费时间，公司不仅不能照顾好，更没有时间陪家人。结交的人多了之后你的风险会加大，因为他们当中可能有人有不良爱好，会对你和公司带来一定影响，还有看到人家打高尔夫球你也要去学，这么一来时间精力就放到这上面去了，慢慢可能会拖垮你的事业。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首先你一开始去判断别人的动机和目的是一件非常难的事情，这本身就是一个巨大的风险，因为你判断失误的话这个结果就是你自己造成的，所以我一般都不去判断。在京东我们倡导一种全新的合作模式，就是希望用一种公开的大家都知道的京东合作规则，不需要认识什么人，不需要任何关系，只要符合规则就可以合作。最后我们彼此都成就了对方。有的大的供销商都已经做到100亿了但我从来没有跟他们见过面，其实不需要见面，你作为供销厂商做好自己的产品，京东帮你快速销售，双方把合同签好、条款定好大家一年最多见一次面，可能双方业务人员见面就足够了。在判断合作伙伴时，第一就要确认你的产品品质，消费者喜不喜欢，价格能不能让客户满意。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>另外近两年我开始推行一个简单的方法，原来有很多公司过来谈合作，对方要求1小时时间，其实你会发现很多时候根本不需要1小时，我们倡导两种选择：5分钟或15分钟，跟任何人会面最长时间15分钟，因为你过来哪怕有5件事情，15分钟都可以说得很清楚。不像以前传统会面，大家往那儿一坐，双方先放20分钟PPT介绍各自公司，再花更多时间去谈，其实我们打听一下就能知道你公司的基本情况，不需要再浪费双方时间，这样反而提升彼此的工作效率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东有一个很重要的使命就是我们希望让人们的生活变得简单快乐。比如购物，大家会享受这个过程但没人会喜欢复杂，所以我想大家都认同简单才有快乐这个观点，我自己也倡导简单地去生活和工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具体要分配多少时间我没有仔细考虑过，我觉得不同时间有不同的需要，比如当家人生病需要我的时候我就算10天不去上班也要照顾家人，因为家人永远是最重要的，我不认为有冲突。当然从创业角度来讲，我相信大部分创业者的比例还是在事业上，那是没办法的事情。要么就别创业，选择了就要承担。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我从1998年开始创业到现在十几年以来，虽然每年我都有一次15～20天的长休，但是大部分是去沙漠。你知道沙漠的气候和环境，每天也还是在奔波，而且虽然是休息可还是一直想着公司战略。去哥大是我创业以来第一次彻底地放松，身心、思想上都放松了，所以那段时间可以很全面地思考自己的人生，看的书也不全是商业方面的了，会看一些生活类书和报刊，这个过程可以说是不断地迭代思考吧。还有我希望能把生活、事业、健康都兼顾起来，不像过去创业初期不计代价一味地狂奔。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我认为这时候你也可以给团队一个休息，如果天天跟老板在一起，员工不可避免地要去思考工作的问题，然而不在的时候也可以考验团队的价值观是否真的一致。拿京东来讲，我不在的时间里，京东三个季度的业绩非常好，可以说我们团队的价值观是真正一致的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大家更多地会从比如公司的销售额啊、公司的市值啊、那么多员工啊、知名度啊这些角度来衡量我的或者京东的成功，这是让我感觉有点困惑的。真正让我欣喜的是，京东从2004年做电商到现在11年了，我们是行业里面少有的11年里坚持不售假贩假，不逃税漏税，不行贿受贿，最守法、最本分的公司之一。然而，以这样的方式获得成功非常不容易，有很多诱惑，比如逃税漏税的公司挣的肯定比你多。所以，京东这么多年来以最正规、最阳光的方式取得了今天的成功，这是最让我感到欣慰的，我觉得这是真正的成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得我就是一个不断努力的、很简单的一个人。有的新同事刚接触我可能觉得我高深莫测，但相处下来就会发现，我是一个简单得不能再简单的人，我的生活态度和追求就是希望通过自己不断地努力能够成就自己的梦想。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东战略部门会对公司业务每个环节都进行持续研究，一旦发现过去因历史遗留或创新，没给客户带来价值的产品，京东就会关掉。“我们很多产品不都是长寿的，有的推出来几个月就关掉了。作为一个组织来讲，如果创新就一定会伴随着失败，我们必须包容失败，不行就关掉，没什么。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东产品展示界面马上要改版，京东会把所有核心产品不同卖家放到一个页面，不分自营还是第三方，大家展示机会均等，京东让用户进行选择，最终比拼的还是谁的服务好，谁的价格更低。所以京东自营和POP也是竞争，可能是很激烈的竞争。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">刘强东坦言，当前京东开放平台还处于投入期，并没有到正式发力之时，也未到大规模增长阶段。对京东来说，POP平台最核心的是系统，这一方面与阿里巴巴存在不小差距。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>很多京东平台上的产品降价都不是外面的友商，而是同一公司不同部门的作为。比如化妆品领域，自营部门和POP部门竞争非常激烈，好多降价都是内部降价。但不管怎么竞争，这对消费者有利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不管是技术也好，还是物流也好，还是资金也好，我们都是做得相对比较扎实的，远远超出外界的想象。过去九年的高速增长，京东既没出现资金链的断裂，也没有出现信息系统的瓶颈，也没有物流的瓶颈，这都已经证明了我们的团队是有能力面对高增长的挑战的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大公司病可能90%出在文化上，比如说部门协作的困难，工作互相推诿，互相扯皮。当然系统流程也很重要，如果以团队作为考评，不可避免让我们的管理人员只关注我的小组，我这个部门，整体的利益不管了，因为不是它的KPI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘强东对腾讯科技表示，公司业务规模基数越来越大，再保持翻两倍的增速可能是灾难性结果。往年京东三分之二是新人，三分之一是老人，从今年起从控制新员工开始，京东能够得到很好的喘息机会，能够迅速利用这个时间对组织结构彻底进行梳理，为第二个十年增长打下好的基础。同时，京东今年成立了京东大学，全员进行培训。京东要求高级管理人员将更多时间放在公司文化建设方面，确保团队价值观统一，而非像过去90%精力都放在业务层面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>除了电商业务之外，我们还有多种业务，具备多种服务能力。我们将利用最新技术，确保在各个方面都能满足我们的消费者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从第一天起，我就定下了一个准则，那就是只和著名品牌合作，因为中国的中产阶级正迅速发展庞大，我觉得我的选择是对的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因为我最看重质量。而且，我们需要很长时间构建一个体系，比如干线系统，售后服务，交易体系，配送服务。我需要花时间去建成这样一个体系，然后向第三方卖家开放。这就是我们的模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从2004年到2010年，用了六年。当我们建立了良好的声誉，赢得品牌和消费者的信任之后，我们就开始向第三方商家开放这个平台，并建立了非常严格的标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得腾讯对于我们来说，是一个无限的资源，就像一个仓库，比如今天的微信。我想说我们看到的还只是冰山一角，不到10%，还有90%等待我们挖掘。腾讯可以给我们带来更多客户，通过微信，我们可以触及更多中国消费者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>今天，24%的新顾客来自于手机QQ和微信。它们可以帮助我们吸引更多的新顾客。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们有很多合作，比如京东与腾讯的合作，京东与今日头条，百度的合作。我觉得很快，在这个月末，京东与奇虎360也会合作项目（京东已与奇虎360达成战略合作协议）。奇虎360，百度，腾讯，今日头条，都拥有庞大的资源，这会给我们带来新的客源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是一种误解。我们自己的物流网络不仅没有增加成本，反而更加省钱，因为我们的物流网络相当高效，比起第三方物流公司，我们的成本更低。所以我们会继续加大对物流的投资，确保未来的效率越来越高，成本越来越低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得还是效率问题。给你举个在北京的例子吧。我们的配送员一天可以配送150个包裹，但是5年之前，这个数字是60。我相信，在未来五年，他们一天将配送450个包裹。第二点是，我们建立了自己的仓库。今天，我们在全国拥有335个大型仓库，在未来3年内，我们将建立500个。这样一来，我们的产品距离顾客就越来越近，配送成本也会大大降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是的，过去我们的物流服务总是占据最多的成本，但是今后它将是我们盈利的关键。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我认为两者都有。因为就像中国本地的公司，在国内更容易拿到金融牌照。其次，在中国，如果你利用好了金融业务模式，那将会促进你和顾客之间的沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>很多。我们有线上支付产品、消费金融产品、供应链金融产品等，以后，我们会给合作伙伴和顾客提供更多的服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上市只是大公司公开透明财务的一种方式，对我们的合作伙伴有益处。对于京东金融，我认为上市从来就不是一种竞争</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们对未来中国奢侈品市场有自己的预判。首先，越来越多的中国人热衷于奢侈品牌，很多Farfetch上的奢侈品在中国都找不到，不管是线上还是线下。因此，这对中国顾客来说意义很大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是的，确实是个挑战，因为过去100年里，奢侈品只做线下生意，但好消息是，今天所有的奢侈品牌都意识到他们需要进军电商平台。我觉得应该还需要些时间，但我确信，我们会与所有的奢侈品牌合作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是的，特别是在中国，线上将会成为主要的渠道，不像在欧洲或者美国。电商在中国的发展将会比在其他任何国家发展得更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我相信，5年之内我们将超过天猫，成为中国最大的B2C平台。因为我们一直以来都比他们发展得快，另外，还有一个原因，那就是我们的用户体验比中国其他任何一个竞争者都要好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我认为，接下来几年，整个零售市场，不仅是线上零售，也包括线下零售，将发生巨变，因为技术将改变一切。比如，在线下商店，你不会看到员工，而在像京东这样的线上零售商，你会发现我们的仓库和配送站中没有任何人，甚至没有配送员。我们将使用机器人为顾客送货。那将是一场激动人心的变革，我们称之为“终极版”。那将意味着这个行业将不会再升级了。因为在过去几千年里，这是我们第一次将整个供应链的效率提升到最高，将成本降至最低。用户体验将是完美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如果不能，我就不会这么干了，不是吗？所以我觉得肯定可以，我们对于在经济欠发达地区开展业务非常有经验。我们会将国内的商业模式复制到印尼。我们同样会搭建物流基础设施，组建配送团队。现在起到今后5-10年内，最重要的就是基础设施，它与GMV、收入或者净利润概念不同。一旦我们拥有最好的用户体验，我们就能吸引越来越多的客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我认为是家族遗传。我们家就是做生意的。多年前，他们驶船做买卖，就像今天京东的物流业务。我能从父亲，祖父，曾祖父那儿听到很多故事。是他们教会我如何做生意，如何取得合作伙伴信任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非常简单。如果你赚了1块钱，别全部拿走，只拿70%，留下30%给合作伙伴或者员工。这样，你会有更多的机会，并且能长期挣钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我觉得最重要的，我最想带给中国的就是正道成功。因为在过去，中国法律环境还不太好，很多企业家都是通过一些灰色渠道甚至是违法方式挣钱。但对我而言，我非常年轻，所以我通过合法手段挣钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我个人认为，应该保持不断且积极的学习，努力工作。站在我的公司角度而言，只有一点---用户体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这会鼓励更多的年轻人参与创业。他们会想，刘强东也可以这么成功，那我也可以通过合法手段获得成功。所以，现在跟过去不一样了，过去其他人开公司的时候，脑子里想着怎么去欺骗顾客，怎么偷税，反正尽是些违法手段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你总是希望用户体验是最棒的，所以你必须对各个环节都异常严格，对公司里的每个人都非常严格。否则，就无法提供完美的用户体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我想了解一下顾客的感受。如果他们看到我穿着京东配送员的衣服，他们会对我微笑，他们很高兴，我也会很开心。如果他们看到京东配送员，一脸不高兴，我就会担心，那说明我们的配送团队有问题。反过来，如果他们很高兴，那说明他们喜欢我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,25 +702,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +1017,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -543,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -578,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -752,1175 +1264,1170 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2015</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2015</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2015</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2015</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2015</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2015</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2015</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2015</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2015</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2015</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2015</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2015</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2015</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2015</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2015</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2015</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2015</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2015</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2015</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2015</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2015</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2015</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2015</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2015</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2015</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2015</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2015</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2015</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
         <v>2018</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>2018</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
         <v>2018</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
         <v>2018</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>2018</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
         <v>2018</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
         <v>2018</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
         <v>2018</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
         <v>2018</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
         <v>2018</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
         <v>2018</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
         <v>2018</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
         <v>2018</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
         <v>2018</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
         <v>2018</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
         <v>2018</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
         <v>2018</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
         <v>2018</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
         <v>2018</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
         <v>2018</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
         <v>2018</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
         <v>2018</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
         <v>2018</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
         <v>2018</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
         <v>2018</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>0</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>0</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>0</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>0</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>0</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>0</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>0</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>0</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>0</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>0</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>0</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
         <v>2013</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
         <v>2013</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
         <v>2013</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
         <v>2013</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
         <v>2013</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
         <v>2013</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
         <v>2013</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2017</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2017</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2017</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2017</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>0</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2017</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>0</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2017</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>0</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2017</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>0</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2017</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2017</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2017</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>0</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2017</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2017</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2017</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>0</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2017</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>0</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2017</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>0</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2017</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>0</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2017</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>0</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2017</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>0</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2017</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>0</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2017</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>0</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2017</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>0</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2017</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>0</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2017</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>0</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2017</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>0</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2017</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>